--- a/p7_sec_outcomes_kyle.xlsx
+++ b/p7_sec_outcomes_kyle.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="p7_sec_outcomes_kyle" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -687,8 +687,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-573537504"/>
-        <c:axId val="-573544576"/>
+        <c:axId val="257484352"/>
+        <c:axId val="257487072"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -852,11 +852,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-573537504"/>
-        <c:axId val="-573544576"/>
+        <c:axId val="257484352"/>
+        <c:axId val="257487072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-573537504"/>
+        <c:axId val="257484352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -898,7 +898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-573544576"/>
+        <c:crossAx val="257487072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -907,7 +907,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-573544576"/>
+        <c:axId val="257487072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -959,7 +959,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-573537504"/>
+        <c:crossAx val="257484352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1067,8 +1067,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-573533152"/>
-        <c:axId val="-573536416"/>
+        <c:axId val="377755984"/>
+        <c:axId val="257290688"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1232,11 +1232,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-573533152"/>
-        <c:axId val="-573536416"/>
+        <c:axId val="377755984"/>
+        <c:axId val="257290688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-573533152"/>
+        <c:axId val="377755984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1278,7 +1278,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-573536416"/>
+        <c:crossAx val="257290688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1287,7 +1287,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-573536416"/>
+        <c:axId val="257290688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="24"/>
@@ -1340,7 +1340,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-573533152"/>
+        <c:crossAx val="377755984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="6"/>
@@ -1435,6 +1435,12 @@
                 <c:pt idx="11">
                   <c:v>28</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>24.666666666666664</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1448,8 +1454,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="500"/>
-        <c:axId val="-573534784"/>
-        <c:axId val="-573540768"/>
+        <c:axId val="490467760"/>
+        <c:axId val="490468304"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1613,11 +1619,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-573534784"/>
-        <c:axId val="-573540768"/>
+        <c:axId val="490467760"/>
+        <c:axId val="490468304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-573534784"/>
+        <c:axId val="490467760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1659,7 +1665,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-573540768"/>
+        <c:crossAx val="490468304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1668,7 +1674,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-573540768"/>
+        <c:axId val="490468304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="28"/>
@@ -1721,7 +1727,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-573534784"/>
+        <c:crossAx val="490467760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="7"/>
@@ -5007,8 +5013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6018,6 +6024,10 @@
       <c r="O17">
         <v>9</v>
       </c>
+      <c r="P17">
+        <f>AVERAGE(O2:O6)+AVERAGE(O10:O12)</f>
+        <v>20.8</v>
+      </c>
       <c r="R17" t="s">
         <v>17</v>
       </c>
@@ -6074,6 +6084,10 @@
       <c r="O18">
         <v>7</v>
       </c>
+      <c r="P18">
+        <f>AVERAGE(O7:O9)+AVERAGE(O13:O18)</f>
+        <v>24.666666666666664</v>
+      </c>
       <c r="R18" t="s">
         <v>17</v>
       </c>
@@ -6111,6 +6125,10 @@
       </c>
       <c r="O19">
         <v>11.25</v>
+      </c>
+      <c r="P19">
+        <f>P18-P17</f>
+        <v>3.8666666666666636</v>
       </c>
       <c r="R19" t="s">
         <v>17</v>
